--- a/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
+++ b/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\pipinghotdata_distill\_posts\2022-03-23-personal-r-administration-on-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1CD02-5D13-4C87-BE82-49FCB825F1D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B3D2E-FE4B-46F3-912A-52ABF9E6C001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Software</t>
   </si>
@@ -104,30 +104,15 @@
     <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents\.Renviron`</t>
   </si>
   <si>
-    <t>destination directory</t>
-  </si>
-  <si>
-    <t>in .Rprofile: `options(usethis.destdir = "X/X")`</t>
-  </si>
-  <si>
-    <t>`C:\Users\pileggis\Documents\gh-personal"`</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
     <t>??</t>
   </si>
   <si>
-    <t>`Sys.getenv("HOME")`, `Sys.getenv("R_User")`</t>
-  </si>
-  <si>
     <t>`fs::path_home()`</t>
   </si>
   <si>
-    <t>`fs::path_home_r()`</t>
-  </si>
-  <si>
     <t>`C:\Program Files\RStudio`</t>
   </si>
   <si>
@@ -146,10 +131,19 @@
     <t>`.libPaths()`</t>
   </si>
   <si>
-    <t>shrtcts</t>
-  </si>
-  <si>
     <t>`shrtcts::locate_shortcuts_source()`</t>
+  </si>
+  <si>
+    <t>`Sys.getenv("HOME")`, `Sys.getenv("R_User")`, `fs::path_home_r()`</t>
+  </si>
+  <si>
+    <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents\.shrtcts.R`</t>
+  </si>
+  <si>
+    <t>`.shrtcts.R`</t>
+  </si>
+  <si>
+    <t>`addins.json`</t>
   </si>
 </sst>
 </file>
@@ -501,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D0A01-D8A2-4966-8A37-75D27BE2550F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,44 +525,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -576,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -593,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,13 +595,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -615,21 +606,24 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -637,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -651,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -665,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -679,24 +673,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
+++ b/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\pipinghotdata_distill\_posts\2022-03-23-personal-r-administration-on-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24B3D2E-FE4B-46F3-912A-52ABF9E6C001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B337778-8B8F-415F-82E9-DDD0A3481E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Software</t>
   </si>
@@ -131,19 +131,10 @@
     <t>`.libPaths()`</t>
   </si>
   <si>
-    <t>`shrtcts::locate_shortcuts_source()`</t>
-  </si>
-  <si>
     <t>`Sys.getenv("HOME")`, `Sys.getenv("R_User")`, `fs::path_home_r()`</t>
   </si>
   <si>
-    <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents\.shrtcts.R`</t>
-  </si>
-  <si>
-    <t>`.shrtcts.R`</t>
-  </si>
-  <si>
-    <t>`addins.json`</t>
+    <t>`devtools::find_rtools()`, `devtools::has_devel()`</t>
   </si>
 </sst>
 </file>
@@ -495,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D0A01-D8A2-4966-8A37-75D27BE2550F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +522,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -597,6 +588,9 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
@@ -652,28 +646,6 @@
       </c>
       <c r="D11" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
+++ b/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\pipinghotdata_distill\_posts\2022-03-23-personal-r-administration-on-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B337778-8B8F-415F-82E9-DDD0A3481E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D7FD0-45F3-4F3A-8257-10B5F6E4B282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Software</t>
   </si>
@@ -122,12 +122,6 @@
     <t>`C:\Users\pileggis`</t>
   </si>
   <si>
-    <t>`C:\PROGRA~1\R\R-41~1.2`</t>
-  </si>
-  <si>
-    <t>`"C:\Program Files\R\R-4.1.1\library" "C:\Program Files\R\R-4.1.2\library"`</t>
-  </si>
-  <si>
     <t>`.libPaths()`</t>
   </si>
   <si>
@@ -135,6 +129,21 @@
   </si>
   <si>
     <t>`devtools::find_rtools()`, `devtools::has_devel()`</t>
+  </si>
+  <si>
+    <t>`shrtcts::locate_shortcuts_source()`</t>
+  </si>
+  <si>
+    <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents\.shrtcts.R`</t>
+  </si>
+  <si>
+    <t>`.shrtcts.R`</t>
+  </si>
+  <si>
+    <t>`C:\Program Files\R\R-4.1.2\library`</t>
+  </si>
+  <si>
+    <t>`C:\Program Files\R\R-4.1.2`</t>
   </si>
 </sst>
 </file>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D0A01-D8A2-4966-8A37-75D27BE2550F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -553,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -564,10 +573,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -589,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -646,6 +655,20 @@
       </c>
       <c r="D11" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
+++ b/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\pipinghotdata_distill\_posts\2022-03-23-personal-r-administration-on-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D7FD0-45F3-4F3A-8257-10B5F6E4B282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72385B4C-B222-49ED-9B1D-61A7FA2E0692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,30 +65,18 @@
     <t>Configuration</t>
   </si>
   <si>
-    <t>`C:\Program Files\Git`</t>
-  </si>
-  <si>
     <t>`usethis::edit_git_config()`</t>
   </si>
   <si>
     <t>`.gitconfig`</t>
   </si>
   <si>
-    <t>`C:\Users\pileggis\.gitconfig`</t>
-  </si>
-  <si>
-    <t>`C:\rtools40`</t>
-  </si>
-  <si>
     <t>`.Rprofile`</t>
   </si>
   <si>
     <t>`usethis::edit_r_profile()`</t>
   </si>
   <si>
-    <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents\.Rprofile`</t>
-  </si>
-  <si>
     <t>R packages</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>`.Renviron`</t>
   </si>
   <si>
-    <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents\.Renviron`</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -113,15 +98,6 @@
     <t>`fs::path_home()`</t>
   </si>
   <si>
-    <t>`C:\Program Files\RStudio`</t>
-  </si>
-  <si>
-    <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents`</t>
-  </si>
-  <si>
-    <t>`C:\Users\pileggis`</t>
-  </si>
-  <si>
     <t>`.libPaths()`</t>
   </si>
   <si>
@@ -134,16 +110,40 @@
     <t>`shrtcts::locate_shortcuts_source()`</t>
   </si>
   <si>
-    <t>`C:\Users\pileggis\OneDrive - Memorial Sloan Kettering Cancer Center\Documents\.shrtcts.R`</t>
-  </si>
-  <si>
     <t>`.shrtcts.R`</t>
   </si>
   <si>
-    <t>`C:\Program Files\R\R-4.1.2\library`</t>
-  </si>
-  <si>
-    <t>`C:\Program Files\R\R-4.1.2`</t>
+    <t>`C:/Users/pileggis/OneDrive - Memorial Sloan Kettering Cancer Center/Documents`</t>
+  </si>
+  <si>
+    <t>`C:/Users/pileggis`</t>
+  </si>
+  <si>
+    <t>`C:/Program Files/R/R-4.2.0`</t>
+  </si>
+  <si>
+    <t>`C:/Program Files/R/R-4.2.0/library`</t>
+  </si>
+  <si>
+    <t>`C:/Program Files/RStudio`</t>
+  </si>
+  <si>
+    <t>`C:/rtools42`</t>
+  </si>
+  <si>
+    <t>`C:/Program Files/Git`</t>
+  </si>
+  <si>
+    <t>`C:/Users/pileggis/OneDrive - Memorial Sloan Kettering Cancer Center/Documents/.Renviron`</t>
+  </si>
+  <si>
+    <t>`C:/Users/pileggis/OneDrive - Memorial Sloan Kettering Cancer Center/Documents/.Rprofile`</t>
+  </si>
+  <si>
+    <t>`C:/Users/pileggis/.gitconfig`</t>
+  </si>
+  <si>
+    <t>`C:/Users/pileggis/OneDrive - Memorial Sloan Kettering Cancer Center/Documents/.shrtcts.R`</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,30 +525,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -598,10 +598,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -620,13 +620,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -634,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -648,13 +648,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -662,13 +662,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
+++ b/_posts/2022-03-23-personal-r-administration-on-windows/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\pipinghotdata_distill\_posts\2022-03-23-personal-r-administration-on-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72385B4C-B222-49ED-9B1D-61A7FA2E0692}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9769DED4-056D-4959-8C45-6E5290E1654F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C902730-6013-4953-87DA-D9AD08A9C515}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Software</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>`C:/Users/pileggis/OneDrive - Memorial Sloan Kettering Cancer Center/Documents/.shrtcts.R`</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>`C:/Program Files/Quarto`</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592D0A01-D8A2-4966-8A37-75D27BE2550F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,16 +623,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -634,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -648,13 +651,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -662,12 +665,26 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
     </row>
